--- a/data/trans_bre/P41C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Provincia-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.359952858724671</v>
+        <v>4.435427424682457</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-1.500541915186739</v>
+        <v>-1.50054191518674</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3473376686788911</v>
+        <v>-0.3473376686788913</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.710037493597291</v>
+        <v>-10.73212663129386</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.362069647169444</v>
+        <v>4.140592779125634</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.5654329956336579</v>
+        <v>0.5654329956336566</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.06845538259074169</v>
+        <v>0.06845538259074153</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.51048925020202</v>
+        <v>-8.852244361054254</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.5960657380568912</v>
+        <v>-0.6548659916697795</v>
       </c>
     </row>
     <row r="12">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.009689699481839</v>
+        <v>8.481451254096511</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.368799947740785</v>
+        <v>2.174547950739398</v>
       </c>
     </row>
     <row r="13">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.7353787776635743</v>
+        <v>-0.735378777663575</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1133863529171781</v>
+        <v>-0.1133863529171782</v>
       </c>
     </row>
     <row r="14">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-20.24629135738654</v>
+        <v>-17.84106929247862</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.811360039893928</v>
+        <v>6.798514963340025</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01426625662739808</v>
+        <v>0.01426625662739843</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.01105710240316087</v>
+        <v>0.01105710240316114</v>
       </c>
     </row>
     <row r="17">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.221175335684275</v>
+        <v>-3.814272943315325</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.631293487946464</v>
+        <v>2.618602667474945</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9624195555949517</v>
+        <v>0.9854638656887963</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.58413162203998</v>
+        <v>8.753180161534706</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-2.182771544225771</v>
+        <v>-2.182771544225769</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>-0.2860559795433276</v>
+        <v>-0.2860559795433274</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.780678714854435</v>
+        <v>-9.187318228571215</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.7107006453723004</v>
+        <v>-0.7161948577120479</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.880574746679557</v>
+        <v>3.287467035813342</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.9630480665375361</v>
+        <v>1.240297729857807</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-3.820221031000874</v>
+        <v>-3.516025261952368</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8534907569457726</v>
+        <v>-0.7947751354626413</v>
       </c>
     </row>
     <row r="27">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.486154446934399</v>
+        <v>3.872256284527199</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.531223457979602</v>
+        <v>5.551599349738273</v>
       </c>
     </row>
     <row r="28">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.386177495061912</v>
+        <v>-2.548850150260916</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.425399835735401</v>
+        <v>-0.458802411108093</v>
       </c>
     </row>
     <row r="30">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.888763937740487</v>
+        <v>1.924210761454697</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.6535207292173179</v>
+        <v>0.6505430891126508</v>
       </c>
     </row>
     <row r="31">
